--- a/APPSHEET/EXCEL/habitacion_estado_resumen_melo1.xlsx
+++ b/APPSHEET/EXCEL/habitacion_estado_resumen_melo1.xlsx
@@ -176,7 +176,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">28</t>
+            <t xml:space="preserve">26</t>
           </r>
         </is>
       </c>
